--- a/data/kbvreport_export/faktenblatttabellen_2021-02-07.xlsx
+++ b/data/kbvreport_export/faktenblatttabellen_2021-02-07.xlsx
@@ -116,10 +116,10 @@
     <t xml:space="preserve">94</t>
   </si>
   <si>
-    <t xml:space="preserve">80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-14,9 %</t>
+    <t xml:space="preserve">77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-18,1 %</t>
   </si>
   <si>
     <t xml:space="preserve">Unter-60-Jährige</t>
@@ -128,10 +128,7 @@
     <t xml:space="preserve">92</t>
   </si>
   <si>
-    <t xml:space="preserve">76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-17,4 %</t>
+    <t xml:space="preserve">-16,3 %</t>
   </si>
   <si>
     <t xml:space="preserve">Über-60-Jährige</t>
@@ -140,10 +137,10 @@
     <t xml:space="preserve">101</t>
   </si>
   <si>
-    <t xml:space="preserve">81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-19,8 %</t>
+    <t xml:space="preserve">78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-22,8 %</t>
   </si>
   <si>
     <t xml:space="preserve">- Davon 60-bis-79-Jährige</t>
@@ -152,10 +149,10 @@
     <t xml:space="preserve">75</t>
   </si>
   <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-20,0 %</t>
+    <t xml:space="preserve">61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-18,7 %</t>
   </si>
   <si>
     <t xml:space="preserve">- Davon Über-80-Jährige</t>
@@ -164,10 +161,10 @@
     <t xml:space="preserve">184</t>
   </si>
   <si>
-    <t xml:space="preserve">132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-28,3 %</t>
+    <t xml:space="preserve">135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-26,6 %</t>
   </si>
   <si>
     <t xml:space="preserve">Regionen mit 7-TI bei Über-60-Jährigen:</t>
@@ -179,10 +176,10 @@
     <t xml:space="preserve">365</t>
   </si>
   <si>
-    <t xml:space="preserve">332</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -9,0 %</t>
+    <t xml:space="preserve">327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-10,4 %</t>
   </si>
   <si>
     <t xml:space="preserve">&gt; 50</t>
@@ -191,10 +188,10 @@
     <t xml:space="preserve">335</t>
   </si>
   <si>
-    <t xml:space="preserve">278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-17,0 %</t>
+    <t xml:space="preserve">270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-19,4 %</t>
   </si>
   <si>
     <t xml:space="preserve">Intensivbetten</t>
@@ -246,19 +243,25 @@
     <t xml:space="preserve">Ohne Symptomatik</t>
   </si>
   <si>
-    <t xml:space="preserve">16,1 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> %</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PP</t>
+    <t xml:space="preserve">16 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16,3 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,2 PP</t>
   </si>
   <si>
     <t xml:space="preserve">Nicht stationär behandelt</t>
   </si>
   <si>
-    <t xml:space="preserve">90,5 %</t>
+    <t xml:space="preserve">89,3 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90,3 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 PP</t>
   </si>
   <si>
     <t xml:space="preserve">Intensivmedizinisch behandelt (Schätzung)</t>
@@ -294,9 +297,6 @@
     <t xml:space="preserve">119</t>
   </si>
   <si>
-    <t xml:space="preserve">77</t>
-  </si>
-  <si>
     <t xml:space="preserve">-35 %</t>
   </si>
   <si>
@@ -351,94 +351,94 @@
     <t xml:space="preserve">Todesfälle &amp; Sterblichkeit</t>
   </si>
   <si>
-    <t xml:space="preserve">KW 1</t>
+    <t xml:space="preserve">KW 2</t>
   </si>
   <si>
     <t xml:space="preserve">0 bis 59 Jahre</t>
   </si>
   <si>
-    <t xml:space="preserve">125 ( 0,1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121 ( 0,1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -3,2%</t>
+    <t xml:space="preserve">123 ( 0,1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90 ( 0,1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-26,8%</t>
   </si>
   <si>
     <t xml:space="preserve">60 bis 79 Jahre</t>
   </si>
   <si>
-    <t xml:space="preserve">1217 ( 5,5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1186 ( 4,7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2,5%</t>
+    <t xml:space="preserve">1195 ( 4,8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">871 ( 4,4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-27,1%</t>
   </si>
   <si>
     <t xml:space="preserve">80 Jahre +</t>
   </si>
   <si>
-    <t xml:space="preserve">3637 (20,8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3495 (18,2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -3,9%</t>
+    <t xml:space="preserve">3514 (18,3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2914 (16,8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-17,1%</t>
   </si>
   <si>
     <t xml:space="preserve">Gesamt</t>
   </si>
   <si>
-    <t xml:space="preserve">4983 ( 4,0%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4806 ( 3,3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -3,6%</t>
+    <t xml:space="preserve">4836 ( 3,3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3880 ( 3,3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-19,8%</t>
   </si>
   <si>
     <t xml:space="preserve">Übersterblichkeit</t>
   </si>
   <si>
-    <t xml:space="preserve">137 ( 8,4%)</t>
-  </si>
-  <si>
     <t xml:space="preserve">-120 (-6,6%)</t>
   </si>
   <si>
-    <t xml:space="preserve">-187,6%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1136 (18,1%)</t>
+    <t xml:space="preserve">-23 (-1,3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-80,8%</t>
   </si>
   <si>
     <t xml:space="preserve">674 (10,2%)</t>
   </si>
   <si>
-    <t xml:space="preserve"> -40,7%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5097 (47,5%)</t>
+    <t xml:space="preserve">586 ( 8,7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-13,1%</t>
   </si>
   <si>
     <t xml:space="preserve">4436 (40,6%)</t>
   </si>
   <si>
-    <t xml:space="preserve"> -13,0%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6370 (34,2%)</t>
+    <t xml:space="preserve">3839 (34,7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-13,5%</t>
   </si>
   <si>
     <t xml:space="preserve">4990 (25,8%)</t>
   </si>
   <si>
-    <t xml:space="preserve"> -21,7%</t>
+    <t xml:space="preserve">4402 (22,4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-11,8%</t>
   </si>
   <si>
     <t xml:space="preserve">Vorwarnzeit</t>
@@ -460,7 +460,7 @@
 Sachsen-Anhalt</t>
   </si>
   <si>
-    <t xml:space="preserve">16 Tage
+    <t xml:space="preserve">17 Tage
 Sachsen-Anhalt</t>
   </si>
   <si>
@@ -471,7 +471,7 @@
 Berlin</t>
   </si>
   <si>
-    <t xml:space="preserve">56 Tage
+    <t xml:space="preserve">58 Tage
 Berlin</t>
   </si>
   <si>
@@ -496,154 +496,154 @@
     <t xml:space="preserve">2,8 %</t>
   </si>
   <si>
+    <t xml:space="preserve">23.02.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baden-Württemberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,7 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.02.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,2 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berlin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,3 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.02.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brandenburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.02.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bremen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,4 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wird nicht erreicht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,6 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hessen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03.03.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,3 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.03.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niedersachsen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,9 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,88</t>
+  </si>
+  <si>
     <t xml:space="preserve">24.02.2021</t>
   </si>
   <si>
-    <t xml:space="preserve">Baden-Württemberg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,7 %</t>
+    <t xml:space="preserve">Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,3 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saarland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sachsen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,5 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,5 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.02.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schleswig-Holstein</t>
   </si>
   <si>
     <t xml:space="preserve">15.02.2021</t>
   </si>
   <si>
-    <t xml:space="preserve">Bayern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,2 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.02.2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berlin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,4 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.02.2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brandenburg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.02.2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bremen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,4 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wird nicht erreicht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hamburg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,6 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.02.2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hessen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04.03.2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mecklenburg-Vorpommern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,3 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.03.2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niedersachsen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,9 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02.03.2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nordrhein-Westfalen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rheinland-Pfalz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,3 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saarland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sachsen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,5 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sachsen-Anhalt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,5 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.02.2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schleswig-Holstein</t>
-  </si>
-  <si>
     <t xml:space="preserve">Thüringen</t>
   </si>
   <si>
-    <t xml:space="preserve">27.03.2021</t>
+    <t xml:space="preserve">25.03.2021</t>
   </si>
   <si>
     <t xml:space="preserve">Fälle gesamt</t>
@@ -1548,10 +1548,10 @@
         <v>3369433</v>
       </c>
       <c r="H2" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I2" t="n">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3">
@@ -1577,10 +1577,10 @@
         <v>405844</v>
       </c>
       <c r="H3" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I3" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
@@ -1606,10 +1606,10 @@
         <v>596841</v>
       </c>
       <c r="H4" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I4" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5">
@@ -1635,10 +1635,10 @@
         <v>175502</v>
       </c>
       <c r="H5" t="n">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="I5" t="n">
-        <v>181</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6">
@@ -1664,10 +1664,10 @@
         <v>109452</v>
       </c>
       <c r="H6" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I6" t="n">
-        <v>203</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7">
@@ -1693,7 +1693,7 @@
         <v>32424</v>
       </c>
       <c r="H7" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I7" t="n">
         <v>112</v>
@@ -1722,10 +1722,10 @@
         <v>80326</v>
       </c>
       <c r="H8" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="I8" t="n">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
@@ -1751,10 +1751,10 @@
         <v>230477</v>
       </c>
       <c r="H9" t="n">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I9" t="n">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10">
@@ -1780,10 +1780,10 @@
         <v>85709</v>
       </c>
       <c r="H10" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I10" t="n">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11">
@@ -1809,10 +1809,10 @@
         <v>273061</v>
       </c>
       <c r="H11" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I11" t="n">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12">
@@ -1838,10 +1838,10 @@
         <v>659512</v>
       </c>
       <c r="H12" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I12" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13">
@@ -1867,10 +1867,10 @@
         <v>207606</v>
       </c>
       <c r="H13" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I13" t="n">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14">
@@ -1896,10 +1896,10 @@
         <v>40837</v>
       </c>
       <c r="H14" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I14" t="n">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15">
@@ -1925,10 +1925,10 @@
         <v>156889</v>
       </c>
       <c r="H15" t="n">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="I15" t="n">
-        <v>206</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16">
@@ -1954,10 +1954,10 @@
         <v>88726</v>
       </c>
       <c r="H16" t="n">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="I16" t="n">
-        <v>294</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17">
@@ -1983,7 +1983,7 @@
         <v>134814</v>
       </c>
       <c r="H17" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I17" t="n">
         <v>111</v>
@@ -2012,10 +2012,10 @@
         <v>91413</v>
       </c>
       <c r="H18" t="n">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="I18" t="n">
-        <v>245</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -2090,57 +2090,57 @@
         <v>34</v>
       </c>
       <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
         <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>38</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
         <v>41</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>42</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
         <v>45</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>46</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>47</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9"/>
       <c r="C9"/>
@@ -2148,30 +2148,30 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
         <v>50</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>51</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>52</v>
-      </c>
-      <c r="D10" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
         <v>54</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>55</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>56</v>
-      </c>
-      <c r="D11" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2190,7 +2190,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2204,44 +2204,44 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
         <v>59</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>60</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>61</v>
-      </c>
-      <c r="D2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
         <v>63</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>64</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>65</v>
-      </c>
-      <c r="D3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
         <v>67</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>68</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>69</v>
-      </c>
-      <c r="D4" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2260,7 +2260,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2274,49 +2274,49 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
         <v>72</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>73</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>74</v>
-      </c>
-      <c r="D2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
         <v>76</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>77</v>
       </c>
-      <c r="C3" t="s">
-        <v>74</v>
-      </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
@@ -2324,27 +2324,27 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
         <v>90</v>
@@ -2372,7 +2372,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
         <v>95</v>
@@ -2400,7 +2400,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s">
         <v>101</v>
@@ -2627,7 +2627,7 @@
         <v>144</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2641,7 +2641,7 @@
         <v>147</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2695,10 +2695,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F2" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
         <v>155</v>
@@ -2741,10 +2741,10 @@
         <v>161</v>
       </c>
       <c r="E4" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F4" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s">
         <v>162</v>
@@ -2758,16 +2758,16 @@
         <v>164</v>
       </c>
       <c r="C5" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
         <v>165</v>
       </c>
       <c r="E5" t="n">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F5" t="n">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
         <v>166</v>
@@ -2787,10 +2787,10 @@
         <v>168</v>
       </c>
       <c r="E6" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F6" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G6" t="s">
         <v>169</v>
@@ -2813,7 +2813,7 @@
         <v>66</v>
       </c>
       <c r="F7" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
         <v>173</v>
@@ -2827,119 +2827,119 @@
         <v>175</v>
       </c>
       <c r="C8" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
         <v>176</v>
       </c>
       <c r="E8" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F8" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G8" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B9" t="s">
         <v>154</v>
       </c>
       <c r="C9" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E9" t="n">
+        <v>84</v>
+      </c>
+      <c r="F9" t="n">
+        <v>80</v>
+      </c>
+      <c r="G9" t="s">
         <v>179</v>
-      </c>
-      <c r="E9" t="n">
-        <v>87</v>
-      </c>
-      <c r="F9" t="n">
-        <v>83</v>
-      </c>
-      <c r="G9" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" t="s">
         <v>181</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="n">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
         <v>182</v>
       </c>
-      <c r="C10" t="n">
-        <v>45</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="n">
+        <v>90</v>
+      </c>
+      <c r="F10" t="n">
+        <v>84</v>
+      </c>
+      <c r="G10" t="s">
         <v>183</v>
-      </c>
-      <c r="E10" t="n">
-        <v>93</v>
-      </c>
-      <c r="F10" t="n">
-        <v>87</v>
-      </c>
-      <c r="G10" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" t="s">
         <v>185</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="n">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
         <v>186</v>
       </c>
-      <c r="C11" t="n">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>187</v>
-      </c>
       <c r="E11" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F11" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G11" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B12" t="s">
         <v>154</v>
       </c>
       <c r="C12" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E12" t="n">
+        <v>70</v>
+      </c>
+      <c r="F12" t="n">
         <v>73</v>
       </c>
-      <c r="F12" t="n">
-        <v>76</v>
-      </c>
       <c r="G12" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B13" t="s">
         <v>191</v>
-      </c>
-      <c r="B13" t="s">
-        <v>192</v>
       </c>
       <c r="C13" t="n">
         <v>48</v>
@@ -2951,7 +2951,7 @@
         <v>62</v>
       </c>
       <c r="F13" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G13" t="s">
         <v>158</v>
@@ -2959,22 +2959,22 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B14" t="s">
         <v>157</v>
       </c>
       <c r="C14" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E14" t="n">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F14" t="n">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G14" t="s">
         <v>173</v>
@@ -2982,56 +2982,56 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" t="s">
         <v>195</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="n">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
         <v>196</v>
       </c>
-      <c r="C15" t="n">
-        <v>47</v>
-      </c>
-      <c r="D15" t="s">
-        <v>197</v>
-      </c>
       <c r="E15" t="n">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F15" t="n">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G15" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B16" t="s">
         <v>198</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="n">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
         <v>199</v>
       </c>
-      <c r="C16" t="n">
-        <v>16</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16" t="n">
+        <v>135</v>
+      </c>
+      <c r="F16" t="n">
+        <v>116</v>
+      </c>
+      <c r="G16" t="s">
         <v>200</v>
-      </c>
-      <c r="E16" t="n">
-        <v>143</v>
-      </c>
-      <c r="F16" t="n">
-        <v>122</v>
-      </c>
-      <c r="G16" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C17" t="n">
         <v>38</v>
@@ -3040,13 +3040,13 @@
         <v>165</v>
       </c>
       <c r="E17" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F17" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G17" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18">
@@ -3057,16 +3057,16 @@
         <v>160</v>
       </c>
       <c r="C18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
         <v>161</v>
       </c>
       <c r="E18" t="n">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="F18" t="n">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="G18" t="s">
         <v>204</v>
@@ -3228,7 +3228,7 @@
         <v>230</v>
       </c>
       <c r="E5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F5" t="n">
         <v>18881</v>
@@ -3260,7 +3260,7 @@
         <v>233</v>
       </c>
       <c r="E6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F6" t="n">
         <v>39087</v>
@@ -3292,7 +3292,7 @@
         <v>234</v>
       </c>
       <c r="E7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F7" t="n">
         <v>79111</v>

--- a/data/kbvreport_export/faktenblatttabellen_2021-02-07.xlsx
+++ b/data/kbvreport_export/faktenblatttabellen_2021-02-07.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="349">
   <si>
     <t xml:space="preserve">Testungen</t>
   </si>
@@ -116,18 +116,21 @@
     <t xml:space="preserve">94</t>
   </si>
   <si>
+    <t xml:space="preserve">78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-17,0 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unter-60-Jährige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92</t>
+  </si>
+  <si>
     <t xml:space="preserve">77</t>
   </si>
   <si>
-    <t xml:space="preserve">-18,1 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unter-60-Jährige</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92</t>
-  </si>
-  <si>
     <t xml:space="preserve">-16,3 %</t>
   </si>
   <si>
@@ -137,10 +140,10 @@
     <t xml:space="preserve">101</t>
   </si>
   <si>
-    <t xml:space="preserve">78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-22,8 %</t>
+    <t xml:space="preserve">79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-21,8 %</t>
   </si>
   <si>
     <t xml:space="preserve">- Davon 60-bis-79-Jährige</t>
@@ -158,13 +161,13 @@
     <t xml:space="preserve">- Davon Über-80-Jährige</t>
   </si>
   <si>
-    <t xml:space="preserve">184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-26,6 %</t>
+    <t xml:space="preserve">185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-26,5 %</t>
   </si>
   <si>
     <t xml:space="preserve">Regionen mit 7-TI bei Über-60-Jährigen:</t>
@@ -176,10 +179,10 @@
     <t xml:space="preserve">365</t>
   </si>
   <si>
-    <t xml:space="preserve">327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-10,4 %</t>
+    <t xml:space="preserve">331</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -9,3 %</t>
   </si>
   <si>
     <t xml:space="preserve">&gt; 50</t>
@@ -188,10 +191,10 @@
     <t xml:space="preserve">335</t>
   </si>
   <si>
-    <t xml:space="preserve">270</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-19,4 %</t>
+    <t xml:space="preserve">271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-19,1 %</t>
   </si>
   <si>
     <t xml:space="preserve">Intensivbetten</t>
@@ -357,49 +360,49 @@
     <t xml:space="preserve">0 bis 59 Jahre</t>
   </si>
   <si>
-    <t xml:space="preserve">123 ( 0,1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90 ( 0,1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-26,8%</t>
+    <t xml:space="preserve">126 ( 0,1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95 ( 0,1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-24,6%</t>
   </si>
   <si>
     <t xml:space="preserve">60 bis 79 Jahre</t>
   </si>
   <si>
-    <t xml:space="preserve">1195 ( 4,8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">871 ( 4,4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-27,1%</t>
+    <t xml:space="preserve">1219 ( 4,9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">904 ( 4,5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-25,8%</t>
   </si>
   <si>
     <t xml:space="preserve">80 Jahre +</t>
   </si>
   <si>
-    <t xml:space="preserve">3514 (18,3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2914 (16,8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-17,1%</t>
+    <t xml:space="preserve">3553 (18,5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2998 (17,3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-15,6%</t>
   </si>
   <si>
     <t xml:space="preserve">Gesamt</t>
   </si>
   <si>
-    <t xml:space="preserve">4836 ( 3,3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3880 ( 3,3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-19,8%</t>
+    <t xml:space="preserve">4902 ( 3,4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4002 ( 3,4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-18,4%</t>
   </si>
   <si>
     <t xml:space="preserve">Übersterblichkeit</t>
@@ -496,7 +499,7 @@
     <t xml:space="preserve">2,8 %</t>
   </si>
   <si>
-    <t xml:space="preserve">23.02.2021</t>
+    <t xml:space="preserve">24.02.2021</t>
   </si>
   <si>
     <t xml:space="preserve">Baden-Württemberg</t>
@@ -511,139 +514,145 @@
     <t xml:space="preserve">Bayern</t>
   </si>
   <si>
+    <t xml:space="preserve">3,1 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berlin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,3 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.02.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brandenburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bremen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,4 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wird nicht erreicht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,6 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.02.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hessen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03.03.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,3 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.03.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niedersachsen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,9 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,3 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saarland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sachsen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,5 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.02.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,5 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.02.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.02.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thüringen</t>
+  </si>
+  <si>
     <t xml:space="preserve">3,2 %</t>
   </si>
   <si>
-    <t xml:space="preserve">0,89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.02.2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berlin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,3 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.02.2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brandenburg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.02.2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bremen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,4 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wird nicht erreicht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hamburg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,6 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hessen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03.03.2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mecklenburg-Vorpommern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,3 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.03.2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niedersachsen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,9 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nordrhein-Westfalen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.02.2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rheinland-Pfalz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,3 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saarland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sachsen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,5 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sachsen-Anhalt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,5 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.02.2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schleswig-Holstein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.02.2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thüringen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.03.2021</t>
+    <t xml:space="preserve">26.03.2021</t>
   </si>
   <si>
     <t xml:space="preserve">Fälle gesamt</t>
@@ -1498,524 +1507,524 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="G1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G2" t="n">
         <v>3369433</v>
       </c>
       <c r="H2" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="I2" t="n">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D3" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G3" t="n">
         <v>405844</v>
       </c>
       <c r="H3" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I3" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B4" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C4" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D4" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E4" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F4" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G4" t="n">
         <v>596841</v>
       </c>
       <c r="H4" t="n">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I4" t="n">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B5" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C5" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D5" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E5" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F5" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="G5" t="n">
         <v>175502</v>
       </c>
       <c r="H5" t="n">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I5" t="n">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B6" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C6" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D6" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E6" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F6" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="G6" t="n">
         <v>109452</v>
       </c>
       <c r="H6" t="n">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I6" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="G7" t="n">
         <v>32424</v>
       </c>
       <c r="H7" t="n">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="I7" t="n">
-        <v>112</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B8" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C8" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D8" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F8" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G8" t="n">
         <v>80326</v>
       </c>
       <c r="H8" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="I8" t="n">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B9" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C9" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D9" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E9" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F9" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G9" t="n">
         <v>230477</v>
       </c>
       <c r="H9" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I9" t="n">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C10" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D10" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E10" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F10" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G10" t="n">
         <v>85709</v>
       </c>
       <c r="H10" t="n">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I10" t="n">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B11" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C11" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D11" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E11" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F11" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G11" t="n">
         <v>273061</v>
       </c>
       <c r="H11" t="n">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="I11" t="n">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B12" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C12" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D12" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E12" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F12" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G12" t="n">
         <v>659512</v>
       </c>
       <c r="H12" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I12" t="n">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B13" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C13" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D13" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="E13" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F13" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G13" t="n">
         <v>207606</v>
       </c>
       <c r="H13" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I13" t="n">
-        <v>112</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B14" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C14" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D14" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E14" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F14" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G14" t="n">
         <v>40837</v>
       </c>
       <c r="H14" t="n">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="I14" t="n">
-        <v>194</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B15" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C15" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D15" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="E15" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F15" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="G15" t="n">
         <v>156889</v>
       </c>
       <c r="H15" t="n">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="I15" t="n">
-        <v>181</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B16" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C16" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D16" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="E16" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F16" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="G16" t="n">
         <v>88726</v>
       </c>
       <c r="H16" t="n">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I16" t="n">
-        <v>266</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B17" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C17" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D17" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E17" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F17" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G17" t="n">
         <v>134814</v>
       </c>
       <c r="H17" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I17" t="n">
-        <v>111</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B18" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C18" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D18" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="E18" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="F18" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="G18" t="n">
         <v>91413</v>
       </c>
       <c r="H18" t="n">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="I18" t="n">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -2090,57 +2099,57 @@
         <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9"/>
       <c r="C9"/>
@@ -2148,30 +2157,30 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2190,7 +2199,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2204,44 +2213,44 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2260,7 +2269,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2274,49 +2283,49 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
@@ -2324,47 +2333,47 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B9"/>
       <c r="C9"/>
@@ -2372,58 +2381,58 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" t="s">
         <v>98</v>
-      </c>
-      <c r="B11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2442,13 +2451,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -2456,63 +2465,63 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
@@ -2520,58 +2529,58 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2590,7 +2599,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2604,13 +2613,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D2" t="n">
         <v>9</v>
@@ -2618,13 +2627,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D3" t="n">
         <v>7</v>
@@ -2632,13 +2641,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D4" t="n">
         <v>9</v>
@@ -2660,33 +2669,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C2" t="n">
         <v>41</v>
@@ -2695,21 +2704,21 @@
         <v>26</v>
       </c>
       <c r="E2" t="n">
+        <v>79</v>
+      </c>
+      <c r="F2" t="n">
         <v>78</v>
       </c>
-      <c r="F2" t="n">
-        <v>77</v>
-      </c>
       <c r="G2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C3" t="n">
         <v>44</v>
@@ -2724,76 +2733,76 @@
         <v>62</v>
       </c>
       <c r="G3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C4" t="n">
         <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E4" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" t="n">
         <v>78</v>
       </c>
       <c r="G4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C5" t="n">
         <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E5" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F5" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C6" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E6" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F6" t="n">
         <v>92</v>
       </c>
       <c r="G6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7">
@@ -2810,7 +2819,7 @@
         <v>172</v>
       </c>
       <c r="E7" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F7" t="n">
         <v>83</v>
@@ -2836,24 +2845,24 @@
         <v>65</v>
       </c>
       <c r="F8" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G8" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C9" t="n">
         <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E9" t="n">
         <v>84</v>
@@ -2862,21 +2871,21 @@
         <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C10" t="n">
         <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E10" t="n">
         <v>90</v>
@@ -2885,53 +2894,53 @@
         <v>84</v>
       </c>
       <c r="G10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C11" t="n">
         <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E11" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C12" t="n">
         <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E12" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F12" t="n">
         <v>73</v>
       </c>
       <c r="G12" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13">
@@ -2945,7 +2954,7 @@
         <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E13" t="n">
         <v>62</v>
@@ -2954,7 +2963,7 @@
         <v>65</v>
       </c>
       <c r="G13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14">
@@ -2962,19 +2971,19 @@
         <v>192</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C14" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
         <v>193</v>
       </c>
       <c r="E14" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F14" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G14" t="s">
         <v>173</v>
@@ -2988,56 +2997,56 @@
         <v>195</v>
       </c>
       <c r="C15" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
         <v>196</v>
       </c>
       <c r="E15" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F15" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G15" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C16" t="n">
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E16" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F16" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B17" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C17" t="n">
         <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="E17" t="n">
         <v>55</v>
@@ -3046,30 +3055,30 @@
         <v>62</v>
       </c>
       <c r="G17" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B18" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="C18" t="n">
         <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E18" t="n">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F18" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G18" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -3088,208 +3097,208 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="I1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C2" t="n">
         <v>1034975</v>
       </c>
       <c r="D2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F2" t="n">
         <v>91273</v>
       </c>
       <c r="G2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H2" t="n">
         <v>1264</v>
       </c>
       <c r="I2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="J2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B3" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C3" t="n">
         <v>765414</v>
       </c>
       <c r="D3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F3" t="n">
         <v>112681</v>
       </c>
       <c r="G3" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H3" t="n">
         <v>947</v>
       </c>
       <c r="I3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="J3" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C4" t="n">
         <v>2941990</v>
       </c>
       <c r="D4" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F4" t="n">
         <v>61708</v>
       </c>
       <c r="G4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H4" t="n">
         <v>911</v>
       </c>
       <c r="I4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="J4" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B5" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C5" t="n">
         <v>1019720</v>
       </c>
       <c r="D5" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F5" t="n">
         <v>18881</v>
       </c>
       <c r="G5" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H5" t="n">
         <v>443</v>
       </c>
       <c r="I5" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="J5" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C6" t="n">
         <v>3957177</v>
       </c>
       <c r="D6" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F6" t="n">
         <v>39087</v>
       </c>
       <c r="G6" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H6" t="n">
         <v>436</v>
       </c>
       <c r="I6" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="J6" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C7" t="n">
         <v>3395981</v>
       </c>
       <c r="D7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E7" t="s">
         <v>191</v>
@@ -3298,144 +3307,144 @@
         <v>79111</v>
       </c>
       <c r="G7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H7" t="n">
         <v>337</v>
       </c>
       <c r="I7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="J7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B8" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C8" t="n">
         <v>2636738</v>
       </c>
       <c r="D8" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E8" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F8" t="n">
         <v>61386</v>
       </c>
       <c r="G8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H8" t="n">
         <v>281</v>
       </c>
       <c r="I8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J8" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B9" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C9" t="n">
         <v>1550255</v>
       </c>
       <c r="D9" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E9" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F9" t="n">
         <v>14158</v>
       </c>
       <c r="G9" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H9" t="n">
         <v>197</v>
       </c>
       <c r="I9" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="J9" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B10" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C10" t="n">
         <v>745318</v>
       </c>
       <c r="D10" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E10" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F10" t="n">
         <v>17235</v>
       </c>
       <c r="G10" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H10" t="n">
         <v>177</v>
       </c>
       <c r="I10" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="J10" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C11" t="n">
         <v>2291673</v>
       </c>
       <c r="D11" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E11" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F11" t="n">
         <v>14516</v>
       </c>
       <c r="G11" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H11" t="n">
         <v>172</v>
       </c>
       <c r="I11" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="J11" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -3454,130 +3463,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B4" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B5" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B8" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B9" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B12" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B13" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B16" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B17" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/data/kbvreport_export/faktenblatttabellen_2021-02-07.xlsx
+++ b/data/kbvreport_export/faktenblatttabellen_2021-02-07.xlsx
@@ -354,94 +354,94 @@
     <t xml:space="preserve">Todesfälle &amp; Sterblichkeit</t>
   </si>
   <si>
-    <t xml:space="preserve">KW 2</t>
+    <t xml:space="preserve">KW 1</t>
   </si>
   <si>
     <t xml:space="preserve">0 bis 59 Jahre</t>
   </si>
   <si>
+    <t xml:space="preserve">130 ( 0,2%)</t>
+  </si>
+  <si>
     <t xml:space="preserve">126 ( 0,1%)</t>
   </si>
   <si>
-    <t xml:space="preserve">95 ( 0,1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-24,6%</t>
+    <t xml:space="preserve">  -3,1%</t>
   </si>
   <si>
     <t xml:space="preserve">60 bis 79 Jahre</t>
   </si>
   <si>
+    <t xml:space="preserve">1244 ( 5,6%)</t>
+  </si>
+  <si>
     <t xml:space="preserve">1219 ( 4,9%)</t>
   </si>
   <si>
-    <t xml:space="preserve">904 ( 4,5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-25,8%</t>
+    <t xml:space="preserve">  -2,0%</t>
   </si>
   <si>
     <t xml:space="preserve">80 Jahre +</t>
   </si>
   <si>
+    <t xml:space="preserve">3695 (21,1%)</t>
+  </si>
+  <si>
     <t xml:space="preserve">3553 (18,5%)</t>
   </si>
   <si>
-    <t xml:space="preserve">2998 (17,3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-15,6%</t>
+    <t xml:space="preserve">  -3,8%</t>
   </si>
   <si>
     <t xml:space="preserve">Gesamt</t>
   </si>
   <si>
+    <t xml:space="preserve">5072 ( 4,1%)</t>
+  </si>
+  <si>
     <t xml:space="preserve">4902 ( 3,4%)</t>
   </si>
   <si>
-    <t xml:space="preserve">4002 ( 3,4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-18,4%</t>
+    <t xml:space="preserve">  -3,4%</t>
   </si>
   <si>
     <t xml:space="preserve">Übersterblichkeit</t>
   </si>
   <si>
+    <t xml:space="preserve">137 ( 8,4%)</t>
+  </si>
+  <si>
     <t xml:space="preserve">-120 (-6,6%)</t>
   </si>
   <si>
-    <t xml:space="preserve">-23 (-1,3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-80,8%</t>
+    <t xml:space="preserve">-187,6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1136 (18,1%)</t>
   </si>
   <si>
     <t xml:space="preserve">674 (10,2%)</t>
   </si>
   <si>
-    <t xml:space="preserve">586 ( 8,7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-13,1%</t>
+    <t xml:space="preserve"> -40,7%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5097 (47,5%)</t>
   </si>
   <si>
     <t xml:space="preserve">4436 (40,6%)</t>
   </si>
   <si>
-    <t xml:space="preserve">3839 (34,7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-13,5%</t>
+    <t xml:space="preserve"> -13,0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6370 (34,2%)</t>
   </si>
   <si>
     <t xml:space="preserve">4990 (25,8%)</t>
   </si>
   <si>
-    <t xml:space="preserve">4402 (22,4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-11,8%</t>
+    <t xml:space="preserve"> -21,7%</t>
   </si>
   <si>
     <t xml:space="preserve">Vorwarnzeit</t>

--- a/data/kbvreport_export/faktenblatttabellen_2021-02-07.xlsx
+++ b/data/kbvreport_export/faktenblatttabellen_2021-02-07.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="354">
   <si>
     <t xml:space="preserve">Testungen</t>
   </si>
@@ -354,94 +354,94 @@
     <t xml:space="preserve">Todesfälle &amp; Sterblichkeit</t>
   </si>
   <si>
-    <t xml:space="preserve">KW 1</t>
+    <t xml:space="preserve">KW 2</t>
   </si>
   <si>
     <t xml:space="preserve">0 bis 59 Jahre</t>
   </si>
   <si>
-    <t xml:space="preserve">130 ( 0,2%)</t>
-  </si>
-  <si>
     <t xml:space="preserve">126 ( 0,1%)</t>
   </si>
   <si>
-    <t xml:space="preserve">  -3,1%</t>
+    <t xml:space="preserve">95 ( 0,1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-24,6%</t>
   </si>
   <si>
     <t xml:space="preserve">60 bis 79 Jahre</t>
   </si>
   <si>
-    <t xml:space="preserve">1244 ( 5,6%)</t>
-  </si>
-  <si>
     <t xml:space="preserve">1219 ( 4,9%)</t>
   </si>
   <si>
-    <t xml:space="preserve">  -2,0%</t>
+    <t xml:space="preserve">904 ( 4,5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-25,8%</t>
   </si>
   <si>
     <t xml:space="preserve">80 Jahre +</t>
   </si>
   <si>
-    <t xml:space="preserve">3695 (21,1%)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3553 (18,5%)</t>
   </si>
   <si>
-    <t xml:space="preserve">  -3,8%</t>
+    <t xml:space="preserve">2998 (17,3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-15,6%</t>
   </si>
   <si>
     <t xml:space="preserve">Gesamt</t>
   </si>
   <si>
-    <t xml:space="preserve">5072 ( 4,1%)</t>
-  </si>
-  <si>
     <t xml:space="preserve">4902 ( 3,4%)</t>
   </si>
   <si>
-    <t xml:space="preserve">  -3,4%</t>
+    <t xml:space="preserve">4002 ( 3,4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-18,4%</t>
   </si>
   <si>
     <t xml:space="preserve">Übersterblichkeit</t>
   </si>
   <si>
-    <t xml:space="preserve">137 ( 8,4%)</t>
-  </si>
-  <si>
     <t xml:space="preserve">-120 (-6,6%)</t>
   </si>
   <si>
-    <t xml:space="preserve">-187,6%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1136 (18,1%)</t>
+    <t xml:space="preserve">-23 (-1,3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-80,8%</t>
   </si>
   <si>
     <t xml:space="preserve">674 (10,2%)</t>
   </si>
   <si>
-    <t xml:space="preserve"> -40,7%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5097 (47,5%)</t>
+    <t xml:space="preserve">586 ( 8,7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-13,1%</t>
   </si>
   <si>
     <t xml:space="preserve">4436 (40,6%)</t>
   </si>
   <si>
-    <t xml:space="preserve"> -13,0%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6370 (34,2%)</t>
+    <t xml:space="preserve">3839 (34,7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-13,5%</t>
   </si>
   <si>
     <t xml:space="preserve">4990 (25,8%)</t>
   </si>
   <si>
-    <t xml:space="preserve"> -21,7%</t>
+    <t xml:space="preserve">4402 (22,4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-11,8%</t>
   </si>
   <si>
     <t xml:space="preserve">Vorwarnzeit</t>
@@ -790,61 +790,61 @@
     <t xml:space="preserve">Geimpfte Personen</t>
   </si>
   <si>
-    <t xml:space="preserve">Stand 9.2.</t>
+    <t xml:space="preserve">Stand 10.2.</t>
   </si>
   <si>
     <t xml:space="preserve">Gesamt-Bevölkerung</t>
   </si>
   <si>
-    <t xml:space="preserve">2344802 ( 2,8 %)</t>
+    <t xml:space="preserve">2405156 ( 2,9 %)</t>
   </si>
   <si>
     <t xml:space="preserve">Mit nur 1 Impfung</t>
   </si>
   <si>
-    <t xml:space="preserve">1320171 ( 1,6 %)</t>
+    <t xml:space="preserve">1300662 ( 1,6 %)</t>
   </si>
   <si>
     <t xml:space="preserve">Mit 2 Impfungen</t>
   </si>
   <si>
-    <t xml:space="preserve">1024631 ( 1,2 %)</t>
+    <t xml:space="preserve">1104494 ( 1,3 %)</t>
   </si>
   <si>
     <t xml:space="preserve">Pflegeheimbewohnende</t>
   </si>
   <si>
-    <t xml:space="preserve">657328 (82,7 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">340358 (42,8 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">316970 (39,9 %)</t>
+    <t xml:space="preserve">666234 (83,8 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">301092 (37,9 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">365142 (45,9 %)</t>
   </si>
   <si>
     <t xml:space="preserve">Über-80-Jährige</t>
   </si>
   <si>
-    <t xml:space="preserve">830292 (14,6 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">506033 ( 8,9 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">324259 ( 5,7 %)</t>
+    <t xml:space="preserve">861298 (15,2 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">486386 ( 8,6 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">374912 ( 6,6 %)</t>
   </si>
   <si>
     <t xml:space="preserve">Personal in ...</t>
   </si>
   <si>
-    <t xml:space="preserve">1101480 (30,6 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">584358 (16,2 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">517122 (14,4 %)</t>
+    <t xml:space="preserve">1124283 (31,2 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">594677 (16,5 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">529606 (14,7 %)</t>
   </si>
   <si>
     <t xml:space="preserve">Gesamt nur 1x</t>
@@ -874,208 +874,223 @@
     <t xml:space="preserve">1,6</t>
   </si>
   <si>
+    <t xml:space="preserve">1,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1,7</t>
+  </si>
+  <si>
     <t xml:space="preserve">1,2</t>
   </si>
   <si>
-    <t xml:space="preserve">42,8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39,9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8,9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,0</t>
-  </si>
-  <si>
     <t xml:space="preserve">39,1</t>
   </si>
   <si>
-    <t xml:space="preserve">22,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17,4</t>
+    <t xml:space="preserve">44,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3,5</t>
   </si>
   <si>
     <t xml:space="preserve">1,9</t>
   </si>
   <si>
-    <t xml:space="preserve">49,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24,9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42,9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7,9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44,9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15,2</t>
+    <t xml:space="preserve">60,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30,7</t>
   </si>
   <si>
     <t xml:space="preserve"> 3,8</t>
   </si>
   <si>
-    <t xml:space="preserve">2,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3,9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14,8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5,8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12,6</t>
+    <t xml:space="preserve">10,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5,2</t>
   </si>
 </sst>
 </file>
@@ -1551,10 +1566,10 @@
         <v>284</v>
       </c>
       <c r="F2" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="G2" t="n">
-        <v>3369433</v>
+        <v>3509650</v>
       </c>
       <c r="H2" t="n">
         <v>69</v>
@@ -1568,22 +1583,22 @@
         <v>280</v>
       </c>
       <c r="B3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G3" t="n">
-        <v>405844</v>
+        <v>421144</v>
       </c>
       <c r="H3" t="n">
         <v>58</v>
@@ -1594,25 +1609,25 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B4" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G4" t="n">
-        <v>596841</v>
+        <v>614925</v>
       </c>
       <c r="H4" t="n">
         <v>70</v>
@@ -1623,25 +1638,25 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B5" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G5" t="n">
-        <v>175502</v>
+        <v>179863</v>
       </c>
       <c r="H5" t="n">
         <v>59</v>
@@ -1652,7 +1667,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B6" t="s">
         <v>281</v>
@@ -1664,13 +1679,13 @@
         <v>302</v>
       </c>
       <c r="E6" t="s">
-        <v>234</v>
+        <v>303</v>
       </c>
       <c r="F6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G6" t="n">
-        <v>109452</v>
+        <v>113127</v>
       </c>
       <c r="H6" t="n">
         <v>79</v>
@@ -1681,25 +1696,25 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B7" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G7" t="n">
-        <v>32424</v>
+        <v>33421</v>
       </c>
       <c r="H7" t="n">
         <v>72</v>
@@ -1710,25 +1725,25 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E8" t="s">
-        <v>312</v>
+        <v>234</v>
       </c>
       <c r="F8" t="s">
         <v>313</v>
       </c>
       <c r="G8" t="n">
-        <v>80326</v>
+        <v>83752</v>
       </c>
       <c r="H8" t="n">
         <v>68</v>
@@ -1742,10 +1757,10 @@
         <v>280</v>
       </c>
       <c r="B9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D9" t="s">
         <v>314</v>
@@ -1757,7 +1772,7 @@
         <v>316</v>
       </c>
       <c r="G9" t="n">
-        <v>230477</v>
+        <v>239310</v>
       </c>
       <c r="H9" t="n">
         <v>73</v>
@@ -1771,22 +1786,22 @@
         <v>317</v>
       </c>
       <c r="B10" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C10" t="s">
+        <v>293</v>
+      </c>
+      <c r="D10" t="s">
         <v>318</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>319</v>
-      </c>
-      <c r="E10" t="s">
-        <v>284</v>
       </c>
       <c r="F10" t="s">
         <v>320</v>
       </c>
       <c r="G10" t="n">
-        <v>85709</v>
+        <v>89006</v>
       </c>
       <c r="H10" t="n">
         <v>77</v>
@@ -1797,7 +1812,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="B11" t="s">
         <v>321</v>
@@ -1815,7 +1830,7 @@
         <v>325</v>
       </c>
       <c r="G11" t="n">
-        <v>273061</v>
+        <v>279784</v>
       </c>
       <c r="H11" t="n">
         <v>63</v>
@@ -1826,25 +1841,25 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="B12" t="s">
-        <v>321</v>
+        <v>281</v>
       </c>
       <c r="C12" t="s">
         <v>326</v>
       </c>
       <c r="D12" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="E12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F12" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G12" t="n">
-        <v>659512</v>
+        <v>705386</v>
       </c>
       <c r="H12" t="n">
         <v>67</v>
@@ -1855,25 +1870,25 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B13" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="C13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F13" t="s">
-        <v>284</v>
+        <v>334</v>
       </c>
       <c r="G13" t="n">
-        <v>207606</v>
+        <v>216076</v>
       </c>
       <c r="H13" t="n">
         <v>59</v>
@@ -1884,25 +1899,25 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="B14" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C14" t="s">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="D14" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E14" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="F14" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="G14" t="n">
-        <v>40837</v>
+        <v>41770</v>
       </c>
       <c r="H14" t="n">
         <v>102</v>
@@ -1919,19 +1934,19 @@
         <v>321</v>
       </c>
       <c r="C15" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D15" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E15" t="s">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="F15" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G15" t="n">
-        <v>156889</v>
+        <v>164454</v>
       </c>
       <c r="H15" t="n">
         <v>79</v>
@@ -1942,25 +1957,25 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="B16" t="s">
-        <v>339</v>
+        <v>291</v>
       </c>
       <c r="C16" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D16" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E16" t="s">
-        <v>342</v>
+        <v>249</v>
       </c>
       <c r="F16" t="s">
-        <v>303</v>
+        <v>249</v>
       </c>
       <c r="G16" t="n">
-        <v>88726</v>
+        <v>90979</v>
       </c>
       <c r="H16" t="n">
         <v>96</v>
@@ -1971,25 +1986,25 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B17" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="C17" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D17" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E17" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="F17" t="s">
-        <v>289</v>
+        <v>349</v>
       </c>
       <c r="G17" t="n">
-        <v>134814</v>
+        <v>139640</v>
       </c>
       <c r="H17" t="n">
         <v>60</v>
@@ -2000,25 +2015,25 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="B18" t="s">
         <v>321</v>
       </c>
       <c r="C18" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D18" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E18" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="F18" t="s">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="G18" t="n">
-        <v>91413</v>
+        <v>97013</v>
       </c>
       <c r="H18" t="n">
         <v>125</v>
